--- a/example.xlsx
+++ b/example.xlsx
@@ -135,7 +135,7 @@
     <t xml:space="preserve"> Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Fixed number override: 50000</t>
+    <t xml:space="preserve"> Asset rule Fixed number override: 2000000</t>
   </si>
   <si>
     <t>Setter inn 6000,- pr år Asset rule Addingdiff: 6000</t>
@@ -563,10 +563,10 @@
     <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -733,7 +733,9 @@
       <c r="P6" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="1"/>
       <c r="T6" s="2"/>
@@ -772,7 +774,9 @@
       <c r="P7" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="1"/>
       <c r="T7" s="2"/>
@@ -811,7 +815,9 @@
       <c r="P8" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="1"/>
       <c r="T8" s="2"/>
@@ -850,7 +856,9 @@
       <c r="P9" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="1"/>
       <c r="T9" s="2"/>
@@ -889,7 +897,9 @@
       <c r="P10" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="1"/>
       <c r="T10" s="2"/>
@@ -928,7 +938,9 @@
       <c r="P11" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
       <c r="T11" s="2"/>
@@ -967,7 +979,9 @@
       <c r="P12" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
       <c r="T12" s="2"/>
@@ -1006,7 +1020,9 @@
       <c r="P13" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="1"/>
       <c r="T13" s="2"/>
@@ -1045,7 +1061,9 @@
       <c r="P14" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
       <c r="T14" s="2"/>
@@ -1084,7 +1102,9 @@
       <c r="P15" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
@@ -1123,7 +1143,9 @@
       <c r="P16" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="1"/>
       <c r="T16" s="2"/>
@@ -1162,7 +1184,9 @@
       <c r="P17" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="1"/>
       <c r="T17" s="2"/>
@@ -1201,7 +1225,9 @@
       <c r="P18" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="1"/>
       <c r="T18" s="2"/>
@@ -1240,7 +1266,9 @@
       <c r="P19" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="1"/>
       <c r="T19" s="2"/>
@@ -1279,7 +1307,9 @@
       <c r="P20" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="1"/>
       <c r="T20" s="2"/>
@@ -1318,7 +1348,9 @@
       <c r="P21" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
       <c r="R21" s="6"/>
       <c r="S21" s="1"/>
       <c r="T21" s="2"/>
@@ -1357,7 +1389,9 @@
       <c r="P22" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="1"/>
       <c r="T22" s="2"/>
@@ -1396,7 +1430,9 @@
       <c r="P23" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
       <c r="R23" s="6"/>
       <c r="S23" s="1"/>
       <c r="T23" s="2"/>
@@ -1435,7 +1471,9 @@
       <c r="P24" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
       <c r="R24" s="6"/>
       <c r="S24" s="1"/>
       <c r="T24" s="2"/>
@@ -1474,7 +1512,9 @@
       <c r="P25" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
       <c r="R25" s="6"/>
       <c r="S25" s="1"/>
       <c r="T25" s="2"/>
@@ -1513,7 +1553,9 @@
       <c r="P26" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="1"/>
       <c r="T26" s="2"/>
@@ -1552,7 +1594,9 @@
       <c r="P27" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
       <c r="R27" s="6"/>
       <c r="S27" s="1"/>
       <c r="T27" s="2"/>
@@ -1591,7 +1635,9 @@
       <c r="P28" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
       <c r="R28" s="6"/>
       <c r="S28" s="1"/>
       <c r="T28" s="2"/>
@@ -1630,7 +1676,9 @@
       <c r="P29" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
       <c r="R29" s="6"/>
       <c r="S29" s="1"/>
       <c r="T29" s="2"/>
@@ -1669,7 +1717,9 @@
       <c r="P30" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
       <c r="R30" s="6"/>
       <c r="S30" s="1"/>
       <c r="T30" s="2"/>
@@ -1708,7 +1758,9 @@
       <c r="P31" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="1"/>
       <c r="T31" s="2"/>
@@ -1747,7 +1799,9 @@
       <c r="P32" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
       <c r="R32" s="6"/>
       <c r="S32" s="1"/>
       <c r="T32" s="2"/>
@@ -1786,7 +1840,9 @@
       <c r="P33" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
       <c r="R33" s="6"/>
       <c r="S33" s="1"/>
       <c r="T33" s="2"/>
@@ -1825,7 +1881,9 @@
       <c r="P34" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
       <c r="R34" s="6"/>
       <c r="S34" s="1"/>
       <c r="T34" s="2"/>
@@ -1864,7 +1922,9 @@
       <c r="P35" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
       <c r="R35" s="6"/>
       <c r="S35" s="1"/>
       <c r="T35" s="2"/>
@@ -1903,7 +1963,9 @@
       <c r="P36" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
       <c r="R36" s="6"/>
       <c r="S36" s="1"/>
       <c r="T36" s="2"/>
@@ -1936,22 +1998,18 @@
       <c r="L37" s="2"/>
       <c r="M37" s="1"/>
       <c r="N37" s="6">
-        <v>50000</v>
-      </c>
-      <c r="O37" s="1">
-        <v>40000.0</v>
-      </c>
+        <v>2000000</v>
+      </c>
+      <c r="O37" s="1"/>
       <c r="P37" s="2">
         <v>0.01</v>
       </c>
       <c r="Q37" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="R37" s="6">
-        <v>-400.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6"/>
       <c r="S37" s="1">
-        <v>50000</v>
+        <v>2000000</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="1"/>
@@ -1961,7 +2019,7 @@
       </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1">
-        <v>1560.0</v>
+        <v>62400.0</v>
       </c>
       <c r="Z37" s="2">
         <v>0.78</v>
@@ -1987,22 +2045,22 @@
       <c r="L38" s="9"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8">
-        <v>59500.0</v>
+        <v>2146000.0</v>
       </c>
       <c r="O38" s="8">
-        <v>47600.0</v>
+        <v>16800.0</v>
       </c>
       <c r="P38" s="9">
         <v>0.01</v>
       </c>
       <c r="Q38" s="8">
-        <v>476.0</v>
+        <v>0</v>
       </c>
       <c r="R38" s="8">
-        <v>-476.0</v>
+        <v>-168.0</v>
       </c>
       <c r="S38" s="8">
-        <v>59500.0</v>
+        <v>2146000.0</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="8"/>
@@ -2012,7 +2070,7 @@
       </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8">
-        <v>1856.4</v>
+        <v>66955.2</v>
       </c>
       <c r="Z38" s="9">
         <v>0.78</v>
@@ -2038,22 +2096,22 @@
       <c r="L39" s="2"/>
       <c r="M39" s="1"/>
       <c r="N39" s="6">
-        <v>69665.0</v>
+        <v>2302220.0</v>
       </c>
       <c r="O39" s="1">
-        <v>55732.0</v>
+        <v>141776.0</v>
       </c>
       <c r="P39" s="2">
         <v>0.01</v>
       </c>
       <c r="Q39" s="1">
-        <v>557.32</v>
+        <v>0</v>
       </c>
       <c r="R39" s="6">
-        <v>-557.32</v>
+        <v>-1417.76</v>
       </c>
       <c r="S39" s="1">
-        <v>69665.0</v>
+        <v>2302220.0</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="1"/>
@@ -2063,7 +2121,7 @@
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1">
-        <v>2173.548</v>
+        <v>71829.264</v>
       </c>
       <c r="Z39" s="2">
         <v>0.78</v>
@@ -2089,22 +2147,22 @@
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11">
-        <v>80541.55</v>
+        <v>2469375.4</v>
       </c>
       <c r="O40" s="11">
-        <v>64433.24</v>
+        <v>275500.32</v>
       </c>
       <c r="P40" s="12">
         <v>0.01</v>
       </c>
       <c r="Q40" s="11">
-        <v>644.3324</v>
+        <v>0</v>
       </c>
       <c r="R40" s="11">
-        <v>-644.3324</v>
+        <v>-2755.0032</v>
       </c>
       <c r="S40" s="11">
-        <v>80541.55</v>
+        <v>2469375.4</v>
       </c>
       <c r="T40" s="12"/>
       <c r="U40" s="11"/>
@@ -2114,7 +2172,7 @@
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11">
-        <v>2512.89636</v>
+        <v>77044.51248</v>
       </c>
       <c r="Z40" s="12">
         <v>0.78</v>
@@ -2140,22 +2198,22 @@
       <c r="L41" s="2"/>
       <c r="M41" s="1"/>
       <c r="N41" s="6">
-        <v>92179.4585</v>
+        <v>2648231.678</v>
       </c>
       <c r="O41" s="1">
-        <v>73743.5668</v>
+        <v>418585.3424</v>
       </c>
       <c r="P41" s="2">
         <v>0.01</v>
       </c>
       <c r="Q41" s="1">
-        <v>737.435668</v>
+        <v>0</v>
       </c>
       <c r="R41" s="6">
-        <v>-737.435668</v>
+        <v>-4185.853424</v>
       </c>
       <c r="S41" s="1">
-        <v>92179.4585</v>
+        <v>2648231.678</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="1"/>
@@ -2165,7 +2223,7 @@
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1">
-        <v>2875.9991052</v>
+        <v>82624.8283536</v>
       </c>
       <c r="Z41" s="2">
         <v>0.78</v>
@@ -2191,22 +2249,22 @@
       <c r="L42" s="2"/>
       <c r="M42" s="1"/>
       <c r="N42" s="6">
-        <v>104632.020595</v>
+        <v>2839607.89546</v>
       </c>
       <c r="O42" s="1">
-        <v>83705.616476</v>
+        <v>571686.316368</v>
       </c>
       <c r="P42" s="2">
         <v>0.01</v>
       </c>
       <c r="Q42" s="1">
-        <v>837.05616476</v>
+        <v>0</v>
       </c>
       <c r="R42" s="6">
-        <v>-837.05616476</v>
+        <v>-5716.86316368</v>
       </c>
       <c r="S42" s="1">
-        <v>104632.020595</v>
+        <v>2839607.89546</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="1"/>
@@ -2216,7 +2274,7 @@
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1">
-        <v>3264.519042564</v>
+        <v>88595.766338352</v>
       </c>
       <c r="Z42" s="2">
         <v>0.78</v>
@@ -2242,22 +2300,22 @@
       <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="6">
-        <v>117956.26203665</v>
+        <v>3044380.4481422</v>
       </c>
       <c r="O43" s="1">
-        <v>94365.00962932</v>
+        <v>735504.35851376</v>
       </c>
       <c r="P43" s="2">
         <v>0.01</v>
       </c>
       <c r="Q43" s="1">
-        <v>943.6500962932</v>
+        <v>0</v>
       </c>
       <c r="R43" s="6">
-        <v>-943.6500962932</v>
+        <v>-7355.0435851376</v>
       </c>
       <c r="S43" s="1">
-        <v>117956.26203665</v>
+        <v>3044380.4481422</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="1"/>
@@ -2267,7 +2325,7 @@
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1">
-        <v>3680.2353755435</v>
+        <v>94984.669982037</v>
       </c>
       <c r="Z43" s="2">
         <v>0.78</v>
@@ -2293,22 +2351,22 @@
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="6">
-        <v>132213.20037922</v>
+        <v>3263487.0795122</v>
       </c>
       <c r="O44" s="1">
-        <v>105770.56030337</v>
+        <v>910789.66360972</v>
       </c>
       <c r="P44" s="2">
         <v>0.01</v>
       </c>
       <c r="Q44" s="1">
-        <v>1057.7056030337</v>
+        <v>0</v>
       </c>
       <c r="R44" s="6">
-        <v>-1057.7056030337</v>
+        <v>-9107.8966360972</v>
       </c>
       <c r="S44" s="1">
-        <v>132213.20037922</v>
+        <v>3263487.0795122</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="1"/>
@@ -2318,7 +2376,7 @@
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1">
-        <v>4125.0518518315</v>
+        <v>101820.79688078</v>
       </c>
       <c r="Z44" s="2">
         <v>0.78</v>
@@ -2344,22 +2402,22 @@
       <c r="L45" s="2"/>
       <c r="M45" s="1"/>
       <c r="N45" s="6">
-        <v>147468.12440576</v>
+        <v>3497931.175078</v>
       </c>
       <c r="O45" s="1">
-        <v>117974.49952461</v>
+        <v>1098344.9400624</v>
       </c>
       <c r="P45" s="2">
         <v>0.01</v>
       </c>
       <c r="Q45" s="1">
-        <v>1179.7449952461</v>
+        <v>0</v>
       </c>
       <c r="R45" s="6">
-        <v>-1179.7449952461</v>
+        <v>-10983.449400624</v>
       </c>
       <c r="S45" s="1">
-        <v>147468.12440576</v>
+        <v>3497931.175078</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="1"/>
@@ -2369,7 +2427,7 @@
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1">
-        <v>4601.0054814597</v>
+        <v>109135.45266243</v>
       </c>
       <c r="Z45" s="2">
         <v>0.78</v>
@@ -2395,22 +2453,22 @@
       <c r="L46" s="2"/>
       <c r="M46" s="1"/>
       <c r="N46" s="6">
-        <v>163790.89311416</v>
+        <v>3748786.3573335</v>
       </c>
       <c r="O46" s="1">
-        <v>131032.71449133</v>
+        <v>1299029.0858668</v>
       </c>
       <c r="P46" s="2">
         <v>0.01</v>
       </c>
       <c r="Q46" s="1">
-        <v>1310.3271449133</v>
+        <v>0</v>
       </c>
       <c r="R46" s="6">
-        <v>-1310.3271449133</v>
+        <v>-12990.290858668</v>
       </c>
       <c r="S46" s="1">
-        <v>163790.89311416</v>
+        <v>3748786.3573335</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="1"/>
@@ -2420,7 +2478,7 @@
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1">
-        <v>5110.2758651619</v>
+        <v>116962.1343488</v>
       </c>
       <c r="Z46" s="2">
         <v>0.78</v>
@@ -2446,22 +2504,22 @@
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
       <c r="N47" s="6">
-        <v>181256.25563216</v>
+        <v>4017201.4023468</v>
       </c>
       <c r="O47" s="1">
-        <v>145005.00450572</v>
+        <v>1513761.1218774</v>
       </c>
       <c r="P47" s="2">
         <v>0.01</v>
       </c>
       <c r="Q47" s="1">
-        <v>1450.0500450572</v>
+        <v>0</v>
       </c>
       <c r="R47" s="6">
-        <v>-1450.0500450572</v>
+        <v>-15137.611218774</v>
       </c>
       <c r="S47" s="1">
-        <v>181256.25563216</v>
+        <v>4017201.4023468</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="1"/>
@@ -2471,7 +2529,7 @@
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1">
-        <v>5655.1951757232</v>
+        <v>125336.68375322</v>
       </c>
       <c r="Z47" s="2">
         <v>0.78</v>
@@ -2497,22 +2555,22 @@
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="6">
-        <v>193944.19352641</v>
+        <v>4298405.5005111</v>
       </c>
       <c r="O48" s="1">
-        <v>155155.35482113</v>
+        <v>1738724.4004089</v>
       </c>
       <c r="P48" s="2">
         <v>0.01</v>
       </c>
       <c r="Q48" s="1">
-        <v>1551.5535482113</v>
+        <v>38724.400408871</v>
       </c>
       <c r="R48" s="6">
-        <v>-1551.5535482113</v>
+        <v>-17387.244004089</v>
       </c>
       <c r="S48" s="1">
-        <v>193944.19352641</v>
+        <v>4298405.5005111</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="1"/>
@@ -2522,7 +2580,7 @@
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1">
-        <v>6051.0588380239</v>
+        <v>134110.25161595</v>
       </c>
       <c r="Z48" s="2">
         <v>0.78</v>
@@ -2548,22 +2606,22 @@
       <c r="L49" s="2"/>
       <c r="M49" s="1"/>
       <c r="N49" s="6">
-        <v>207520.28707325</v>
+        <v>4599293.8855469</v>
       </c>
       <c r="O49" s="1">
-        <v>166016.2296586</v>
+        <v>1979435.1084375</v>
       </c>
       <c r="P49" s="2">
         <v>0.01</v>
       </c>
       <c r="Q49" s="1">
-        <v>1660.162296586</v>
+        <v>279435.10843749</v>
       </c>
       <c r="R49" s="6">
-        <v>-1660.162296586</v>
+        <v>-19794.351084375</v>
       </c>
       <c r="S49" s="1">
-        <v>207520.28707325</v>
+        <v>4599293.8855469</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="1"/>
@@ -2573,7 +2631,7 @@
       </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="1">
-        <v>6474.6329566855</v>
+        <v>143497.96922906</v>
       </c>
       <c r="Z49" s="2">
         <v>0.78</v>
@@ -2599,22 +2657,22 @@
       <c r="L50" s="2"/>
       <c r="M50" s="1"/>
       <c r="N50" s="6">
-        <v>222046.70716838</v>
+        <v>4921244.4575351</v>
       </c>
       <c r="O50" s="1">
-        <v>177637.36573471</v>
+        <v>2236995.5660281</v>
       </c>
       <c r="P50" s="2">
         <v>0.01</v>
       </c>
       <c r="Q50" s="1">
-        <v>1776.3736573471</v>
+        <v>536995.56602812</v>
       </c>
       <c r="R50" s="6">
-        <v>-1776.3736573471</v>
+        <v>-22369.955660281</v>
       </c>
       <c r="S50" s="1">
-        <v>222046.70716838</v>
+        <v>4921244.4575351</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="1"/>
@@ -2624,7 +2682,7 @@
       </c>
       <c r="X50" s="1"/>
       <c r="Y50" s="1">
-        <v>6927.8572636535</v>
+        <v>153542.8270751</v>
       </c>
       <c r="Z50" s="2">
         <v>0.78</v>
@@ -2650,22 +2708,22 @@
       <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="6">
-        <v>237589.97667017</v>
+        <v>5265731.5695626</v>
       </c>
       <c r="O51" s="1">
-        <v>190071.98133614</v>
+        <v>2512585.2556501</v>
       </c>
       <c r="P51" s="2">
         <v>0.01</v>
       </c>
       <c r="Q51" s="1">
-        <v>1900.7198133614</v>
+        <v>812585.25565009</v>
       </c>
       <c r="R51" s="6">
-        <v>-1900.7198133614</v>
+        <v>-25125.852556501</v>
       </c>
       <c r="S51" s="1">
-        <v>237589.97667017</v>
+        <v>5265731.5695626</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="1"/>
@@ -2675,7 +2733,7 @@
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="1">
-        <v>7412.8072721093</v>
+        <v>164290.82497035</v>
       </c>
       <c r="Z51" s="2">
         <v>0.78</v>
@@ -2701,22 +2759,22 @@
       <c r="L52" s="2"/>
       <c r="M52" s="1"/>
       <c r="N52" s="6">
-        <v>254221.27503708</v>
+        <v>5634332.779432</v>
       </c>
       <c r="O52" s="1">
-        <v>203377.02002966</v>
+        <v>2807466.2235456</v>
       </c>
       <c r="P52" s="2">
         <v>0.01</v>
       </c>
       <c r="Q52" s="1">
-        <v>2033.7702002966</v>
+        <v>1107466.2235456</v>
       </c>
       <c r="R52" s="6">
-        <v>-2033.7702002966</v>
+        <v>-28074.662235456</v>
       </c>
       <c r="S52" s="1">
-        <v>254221.27503708</v>
+        <v>5634332.779432</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="1"/>
@@ -2726,7 +2784,7 @@
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="1">
-        <v>7931.7037811569</v>
+        <v>175791.18271828</v>
       </c>
       <c r="Z52" s="2">
         <v>0.78</v>
@@ -2752,22 +2810,22 @@
       <c r="L53" s="14"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13">
-        <v>272016.76428968</v>
+        <v>6028736.0739922</v>
       </c>
       <c r="O53" s="13">
-        <v>217613.41143174</v>
+        <v>3122988.8591938</v>
       </c>
       <c r="P53" s="14">
         <v>0.01</v>
       </c>
       <c r="Q53" s="13">
-        <v>2176.1341143174</v>
+        <v>1422988.8591938</v>
       </c>
       <c r="R53" s="13">
-        <v>-2176.1341143174</v>
+        <v>-31229.888591938</v>
       </c>
       <c r="S53" s="13">
-        <v>272016.76428968</v>
+        <v>6028736.0739922</v>
       </c>
       <c r="T53" s="14"/>
       <c r="U53" s="13"/>
@@ -2777,7 +2835,7 @@
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13">
-        <v>8486.9230458379</v>
+        <v>188096.56550856</v>
       </c>
       <c r="Z53" s="14">
         <v>0.78</v>
@@ -2803,22 +2861,22 @@
       <c r="L54" s="2"/>
       <c r="M54" s="1"/>
       <c r="N54" s="6">
-        <v>291057.93778995</v>
+        <v>6450747.5991717</v>
       </c>
       <c r="O54" s="1">
-        <v>232846.35023196</v>
+        <v>3460598.0793373</v>
       </c>
       <c r="P54" s="2">
         <v>0.01</v>
       </c>
       <c r="Q54" s="1">
-        <v>2328.4635023196</v>
+        <v>1760598.0793373</v>
       </c>
       <c r="R54" s="6">
-        <v>-2328.4635023196</v>
+        <v>-34605.980793373</v>
       </c>
       <c r="S54" s="1">
-        <v>291057.93778995</v>
+        <v>6450747.5991717</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="1"/>
@@ -2828,7 +2886,7 @@
       </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1">
-        <v>9081.0076590466</v>
+        <v>201263.32509416</v>
       </c>
       <c r="Z54" s="2">
         <v>0.78</v>
@@ -2854,22 +2912,22 @@
       <c r="L55" s="2"/>
       <c r="M55" s="1"/>
       <c r="N55" s="6">
-        <v>311431.99343525</v>
+        <v>6902299.9311137</v>
       </c>
       <c r="O55" s="1">
-        <v>249145.5947482</v>
+        <v>3821839.944891</v>
       </c>
       <c r="P55" s="2">
         <v>0.01</v>
       </c>
       <c r="Q55" s="1">
-        <v>2491.455947482</v>
+        <v>2121839.944891</v>
       </c>
       <c r="R55" s="6">
-        <v>-2491.455947482</v>
+        <v>-38218.39944891</v>
       </c>
       <c r="S55" s="1">
-        <v>311431.99343525</v>
+        <v>6902299.9311137</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="1"/>
@@ -2879,7 +2937,7 @@
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1">
-        <v>9716.6781951798</v>
+        <v>215351.75785075</v>
       </c>
       <c r="Z55" s="2">
         <v>0.78</v>
@@ -2905,22 +2963,22 @@
       <c r="L56" s="2"/>
       <c r="M56" s="1"/>
       <c r="N56" s="6">
-        <v>333232.23297572</v>
+        <v>7385460.9262917</v>
       </c>
       <c r="O56" s="1">
-        <v>266585.78638057</v>
+        <v>4208368.7410333</v>
       </c>
       <c r="P56" s="2">
         <v>0.01</v>
       </c>
       <c r="Q56" s="1">
-        <v>2665.8578638057</v>
+        <v>2508368.7410333</v>
       </c>
       <c r="R56" s="6">
-        <v>-2665.8578638057</v>
+        <v>-42083.687410333</v>
       </c>
       <c r="S56" s="1">
-        <v>333232.23297572</v>
+        <v>7385460.9262917</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="1"/>
@@ -2930,7 +2988,7 @@
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1">
-        <v>10396.845668842</v>
+        <v>230426.3809003</v>
       </c>
       <c r="Z56" s="2">
         <v>0.78</v>
@@ -2956,22 +3014,22 @@
       <c r="L57" s="14"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13">
-        <v>356558.48928402</v>
+        <v>7902443.1911321</v>
       </c>
       <c r="O57" s="13">
-        <v>285246.79142722</v>
+        <v>4621954.5529057</v>
       </c>
       <c r="P57" s="14">
         <v>0.01</v>
       </c>
       <c r="Q57" s="13">
-        <v>2852.4679142722</v>
+        <v>2921954.5529057</v>
       </c>
       <c r="R57" s="13">
-        <v>-2852.4679142722</v>
+        <v>-46219.545529057</v>
       </c>
       <c r="S57" s="13">
-        <v>356558.48928402</v>
+        <v>7902443.1911321</v>
       </c>
       <c r="T57" s="14"/>
       <c r="U57" s="13"/>
@@ -2981,7 +3039,7 @@
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13">
-        <v>11124.624865661</v>
+        <v>246556.22756332</v>
       </c>
       <c r="Z57" s="14">
         <v>0.78</v>
@@ -3007,22 +3065,22 @@
       <c r="L58" s="2"/>
       <c r="M58" s="1"/>
       <c r="N58" s="6">
-        <v>381517.5835339</v>
+        <v>8455614.2145113</v>
       </c>
       <c r="O58" s="1">
-        <v>305214.06682712</v>
+        <v>5064491.3716091</v>
       </c>
       <c r="P58" s="2">
         <v>0.01</v>
       </c>
       <c r="Q58" s="1">
-        <v>3052.1406682712</v>
+        <v>3364491.3716091</v>
       </c>
       <c r="R58" s="6">
-        <v>-3052.1406682712</v>
+        <v>-50644.913716091</v>
       </c>
       <c r="S58" s="1">
-        <v>381517.5835339</v>
+        <v>8455614.2145113</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="1"/>
@@ -3032,7 +3090,7 @@
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="1">
-        <v>11903.348606258</v>
+        <v>263815.16349275</v>
       </c>
       <c r="Z58" s="2">
         <v>0.78</v>
@@ -3058,22 +3116,22 @@
       <c r="L59" s="2"/>
       <c r="M59" s="1"/>
       <c r="N59" s="6">
-        <v>408223.81438127</v>
+        <v>9047507.2095271</v>
       </c>
       <c r="O59" s="1">
-        <v>326579.05150502</v>
+        <v>5538005.7676217</v>
       </c>
       <c r="P59" s="2">
         <v>0.01</v>
       </c>
       <c r="Q59" s="1">
-        <v>3265.7905150502</v>
+        <v>3838005.7676217</v>
       </c>
       <c r="R59" s="6">
-        <v>-3265.7905150502</v>
+        <v>-55380.057676217</v>
       </c>
       <c r="S59" s="1">
-        <v>408223.81438127</v>
+        <v>9047507.2095271</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="1"/>
@@ -3083,7 +3141,7 @@
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1">
-        <v>12736.583008696</v>
+        <v>282282.22493725</v>
       </c>
       <c r="Z59" s="2">
         <v>0.78</v>
@@ -3109,22 +3167,22 @@
       <c r="L60" s="2"/>
       <c r="M60" s="1"/>
       <c r="N60" s="6">
-        <v>436799.48138796</v>
+        <v>9680832.714194</v>
       </c>
       <c r="O60" s="1">
-        <v>349439.58511037</v>
+        <v>6044666.1713552</v>
       </c>
       <c r="P60" s="2">
         <v>0.01</v>
       </c>
       <c r="Q60" s="1">
-        <v>3494.3958511037</v>
+        <v>4344666.1713552</v>
       </c>
       <c r="R60" s="6">
-        <v>-3494.3958511037</v>
+        <v>-60446.661713552</v>
       </c>
       <c r="S60" s="1">
-        <v>436799.48138796</v>
+        <v>9680832.714194</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="1"/>
@@ -3134,7 +3192,7 @@
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="1">
-        <v>13628.143819304</v>
+        <v>302041.98068285</v>
       </c>
       <c r="Z60" s="2">
         <v>0.78</v>
@@ -3160,22 +3218,22 @@
       <c r="L61" s="2"/>
       <c r="M61" s="1"/>
       <c r="N61" s="6">
-        <v>467375.44508512</v>
+        <v>10358491.004188</v>
       </c>
       <c r="O61" s="1">
-        <v>373900.3560681</v>
+        <v>6586792.8033501</v>
       </c>
       <c r="P61" s="2">
         <v>0.01</v>
       </c>
       <c r="Q61" s="1">
-        <v>3739.003560681</v>
+        <v>4886792.8033501</v>
       </c>
       <c r="R61" s="6">
-        <v>-3739.003560681</v>
+        <v>-65867.928033501</v>
       </c>
       <c r="S61" s="1">
-        <v>467375.44508512</v>
+        <v>10358491.004188</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="1"/>
@@ -3185,7 +3243,7 @@
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="1">
-        <v>14582.113886656</v>
+        <v>323184.91933065</v>
       </c>
       <c r="Z61" s="2">
         <v>0.78</v>
@@ -3211,22 +3269,22 @@
       <c r="L62" s="2"/>
       <c r="M62" s="1"/>
       <c r="N62" s="6">
-        <v>500091.72624108</v>
+        <v>11083585.374481</v>
       </c>
       <c r="O62" s="1">
-        <v>400073.38099286</v>
+        <v>7166868.2995846</v>
       </c>
       <c r="P62" s="2">
         <v>0.01</v>
       </c>
       <c r="Q62" s="1">
-        <v>4000.7338099286</v>
+        <v>5466868.2995846</v>
       </c>
       <c r="R62" s="6">
-        <v>-4000.7338099286</v>
+        <v>-71668.682995846</v>
       </c>
       <c r="S62" s="1">
-        <v>500091.72624108</v>
+        <v>11083585.374481</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="1"/>
@@ -3236,7 +3294,7 @@
       </c>
       <c r="X62" s="1"/>
       <c r="Y62" s="1">
-        <v>15602.861858722</v>
+        <v>345807.8636838</v>
       </c>
       <c r="Z62" s="2">
         <v>0.78</v>
@@ -3262,22 +3320,22 @@
       <c r="L63" s="2"/>
       <c r="M63" s="1"/>
       <c r="N63" s="6">
-        <v>535098.14707795</v>
+        <v>11859436.350694</v>
       </c>
       <c r="O63" s="1">
-        <v>428078.51766236</v>
+        <v>7787549.0805555</v>
       </c>
       <c r="P63" s="2">
         <v>0.01</v>
       </c>
       <c r="Q63" s="1">
-        <v>4280.7851766236</v>
+        <v>6087549.0805555</v>
       </c>
       <c r="R63" s="6">
-        <v>-4280.7851766236</v>
+        <v>-77875.490805555</v>
       </c>
       <c r="S63" s="1">
-        <v>535098.14707795</v>
+        <v>11859436.350694</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="1"/>
@@ -3287,7 +3345,7 @@
       </c>
       <c r="X63" s="1"/>
       <c r="Y63" s="1">
-        <v>16695.062188832</v>
+        <v>370014.41414166</v>
       </c>
       <c r="Z63" s="2">
         <v>0.78</v>
@@ -3313,22 +3371,22 @@
       <c r="L64" s="2"/>
       <c r="M64" s="1"/>
       <c r="N64" s="6">
-        <v>572555.01737341</v>
+        <v>12689596.895243</v>
       </c>
       <c r="O64" s="1">
-        <v>458044.01389873</v>
+        <v>8451677.5161944</v>
       </c>
       <c r="P64" s="2">
         <v>0.01</v>
       </c>
       <c r="Q64" s="1">
-        <v>4580.4401389873</v>
+        <v>6751677.5161944</v>
       </c>
       <c r="R64" s="6">
-        <v>-4580.4401389873</v>
+        <v>-84516.775161944</v>
       </c>
       <c r="S64" s="1">
-        <v>572555.01737341</v>
+        <v>12689596.895243</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="1"/>
@@ -3338,7 +3396,7 @@
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1">
-        <v>17863.71654205</v>
+        <v>395915.42313158</v>
       </c>
       <c r="Z64" s="2">
         <v>0.78</v>
@@ -3364,22 +3422,22 @@
       <c r="L65" s="2"/>
       <c r="M65" s="1"/>
       <c r="N65" s="6">
-        <v>612633.86858955</v>
+        <v>13577868.67791</v>
       </c>
       <c r="O65" s="1">
-        <v>490107.09487164</v>
+        <v>9162294.942328</v>
       </c>
       <c r="P65" s="2">
         <v>0.01</v>
       </c>
       <c r="Q65" s="1">
-        <v>4901.0709487164</v>
+        <v>7462294.942328</v>
       </c>
       <c r="R65" s="6">
-        <v>-4901.0709487164</v>
+        <v>-91622.94942328</v>
       </c>
       <c r="S65" s="1">
-        <v>612633.86858955</v>
+        <v>13577868.67791</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="1"/>
@@ -3389,7 +3447,7 @@
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1">
-        <v>19114.176699994</v>
+        <v>423629.50275079</v>
       </c>
       <c r="Z65" s="2">
         <v>0.78</v>
@@ -3415,22 +3473,22 @@
       <c r="L66" s="2"/>
       <c r="M66" s="1"/>
       <c r="N66" s="6">
-        <v>655518.23939082</v>
+        <v>14528319.485364</v>
       </c>
       <c r="O66" s="1">
-        <v>524414.59151265</v>
+        <v>9922655.588291</v>
       </c>
       <c r="P66" s="2">
         <v>0.01</v>
       </c>
       <c r="Q66" s="1">
-        <v>5244.1459151265</v>
+        <v>8222655.588291</v>
       </c>
       <c r="R66" s="6">
-        <v>-5244.1459151265</v>
+        <v>-99226.55588291</v>
       </c>
       <c r="S66" s="1">
-        <v>655518.23939082</v>
+        <v>14528319.485364</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="1"/>
@@ -3440,7 +3498,7 @@
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1">
-        <v>20452.169068994</v>
+        <v>453283.56794335</v>
       </c>
       <c r="Z66" s="2">
         <v>0.78</v>
@@ -3466,22 +3524,22 @@
       <c r="L67" s="2"/>
       <c r="M67" s="1"/>
       <c r="N67" s="6">
-        <v>701404.51614818</v>
+        <v>15545301.849339</v>
       </c>
       <c r="O67" s="1">
-        <v>561123.61291854</v>
+        <v>10736241.479471</v>
       </c>
       <c r="P67" s="2">
         <v>0.01</v>
       </c>
       <c r="Q67" s="1">
-        <v>5611.2361291854</v>
+        <v>9036241.4794713</v>
       </c>
       <c r="R67" s="6">
-        <v>-5611.2361291854</v>
+        <v>-107362.41479471</v>
       </c>
       <c r="S67" s="1">
-        <v>701404.51614818</v>
+        <v>15545301.849339</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="1"/>
@@ -3491,7 +3549,7 @@
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1">
-        <v>21883.820903823</v>
+        <v>485013.41769938</v>
       </c>
       <c r="Z67" s="2">
         <v>0.78</v>
@@ -3517,22 +3575,22 @@
       <c r="L68" s="2"/>
       <c r="M68" s="1"/>
       <c r="N68" s="6">
-        <v>750502.83227855</v>
+        <v>16633472.978793</v>
       </c>
       <c r="O68" s="1">
-        <v>600402.26582284</v>
+        <v>11606778.383034</v>
       </c>
       <c r="P68" s="2">
         <v>0.01</v>
       </c>
       <c r="Q68" s="1">
-        <v>6004.0226582284</v>
+        <v>9906778.3830343</v>
       </c>
       <c r="R68" s="6">
-        <v>-6004.0226582284</v>
+        <v>-116067.78383034</v>
       </c>
       <c r="S68" s="1">
-        <v>750502.83227855</v>
+        <v>16633472.978793</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="1"/>
@@ -3542,7 +3600,7 @@
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1">
-        <v>23415.688367091</v>
+        <v>518964.35693834</v>
       </c>
       <c r="Z68" s="2">
         <v>0.78</v>
@@ -3568,22 +3626,22 @@
       <c r="L69" s="2"/>
       <c r="M69" s="1"/>
       <c r="N69" s="6">
-        <v>803038.03053805</v>
+        <v>17797816.087308</v>
       </c>
       <c r="O69" s="1">
-        <v>642430.42443044</v>
+        <v>12538252.869847</v>
       </c>
       <c r="P69" s="2">
         <v>0.01</v>
       </c>
       <c r="Q69" s="1">
-        <v>6424.3042443044</v>
+        <v>10838252.869847</v>
       </c>
       <c r="R69" s="6">
-        <v>-6424.3042443044</v>
+        <v>-125382.52869847</v>
       </c>
       <c r="S69" s="1">
-        <v>803038.03053805</v>
+        <v>17797816.087308</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="1"/>
@@ -3593,7 +3651,7 @@
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1">
-        <v>25054.786552787</v>
+        <v>555291.86192402</v>
       </c>
       <c r="Z69" s="2">
         <v>0.78</v>
@@ -3619,22 +3677,22 @@
       <c r="L70" s="2"/>
       <c r="M70" s="1"/>
       <c r="N70" s="6">
-        <v>859250.69267571</v>
+        <v>19043663.21342</v>
       </c>
       <c r="O70" s="1">
-        <v>687400.55414057</v>
+        <v>13534930.570736</v>
       </c>
       <c r="P70" s="2">
         <v>0.01</v>
       </c>
       <c r="Q70" s="1">
-        <v>6874.0055414057</v>
+        <v>11834930.570736</v>
       </c>
       <c r="R70" s="6">
-        <v>-6874.0055414057</v>
+        <v>-135349.30570736</v>
       </c>
       <c r="S70" s="1">
-        <v>859250.69267571</v>
+        <v>19043663.21342</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="1"/>
@@ -3644,7 +3702,7 @@
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1">
-        <v>26808.621611482</v>
+        <v>594162.2922587</v>
       </c>
       <c r="Z70" s="2">
         <v>0.78</v>
@@ -3670,22 +3728,22 @@
       <c r="L71" s="2"/>
       <c r="M71" s="1"/>
       <c r="N71" s="6">
-        <v>919398.24116301</v>
+        <v>20376719.638359</v>
       </c>
       <c r="O71" s="1">
-        <v>735518.59293041</v>
+        <v>14601375.710688</v>
       </c>
       <c r="P71" s="2">
         <v>0.01</v>
       </c>
       <c r="Q71" s="1">
-        <v>7355.1859293041</v>
+        <v>12901375.710688</v>
       </c>
       <c r="R71" s="6">
-        <v>-7355.1859293041</v>
+        <v>-146013.75710688</v>
       </c>
       <c r="S71" s="1">
-        <v>919398.24116301</v>
+        <v>20376719.638359</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="1"/>
@@ -3695,7 +3753,7 @@
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1">
-        <v>28685.225124286</v>
+        <v>635753.65271681</v>
       </c>
       <c r="Z71" s="2">
         <v>0.78</v>
@@ -3721,22 +3779,22 @@
       <c r="L72" s="16"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5">
-        <v>983756.11804442</v>
+        <v>21803090.013045</v>
       </c>
       <c r="O72" s="5">
-        <v>787004.89443554</v>
+        <v>15742472.010436</v>
       </c>
       <c r="P72" s="16">
         <v>0.01</v>
       </c>
       <c r="Q72" s="5">
-        <v>7870.0489443554</v>
+        <v>14042472.010436</v>
       </c>
       <c r="R72" s="5">
-        <v>-7870.0489443554</v>
+        <v>-157424.72010436</v>
       </c>
       <c r="S72" s="5">
-        <v>983756.11804442</v>
+        <v>21803090.013045</v>
       </c>
       <c r="T72" s="16"/>
       <c r="U72" s="5"/>
@@ -3746,7 +3804,7 @@
       </c>
       <c r="X72" s="5"/>
       <c r="Y72" s="5">
-        <v>30693.190882986</v>
+        <v>680256.40840699</v>
       </c>
       <c r="Z72" s="16">
         <v>0.78</v>
@@ -4011,10 +4069,10 @@
     <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -4192,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <v>0.01</v>
@@ -4259,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
         <v>0.01</v>
@@ -4326,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
         <v>0.01</v>
@@ -4393,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
         <v>0.01</v>
@@ -4460,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
         <v>0.01</v>
@@ -4527,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
         <v>0.01</v>
@@ -4594,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
         <v>0.01</v>
@@ -4661,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0.01</v>
@@ -4728,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>0.01</v>
@@ -4795,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>0.01</v>
@@ -4862,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
         <v>0.01</v>
@@ -4929,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
         <v>0.01</v>
@@ -4996,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
         <v>0.01</v>
@@ -5063,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
         <v>0.01</v>
@@ -5130,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
         <v>0.01</v>
@@ -5197,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
         <v>0.01</v>
@@ -5264,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
         <v>0.01</v>
@@ -5331,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2">
         <v>0.01</v>
@@ -5398,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
         <v>0.01</v>
@@ -5465,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
         <v>0.01</v>
@@ -5532,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
         <v>0.01</v>
@@ -5599,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
         <v>0.01</v>
@@ -5666,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
         <v>0.01</v>
@@ -5733,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
         <v>0.01</v>
@@ -5800,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
         <v>0.01</v>
@@ -5867,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
         <v>0.01</v>
@@ -5934,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2">
         <v>0.01</v>
@@ -6001,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
         <v>0.01</v>
@@ -6068,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2">
         <v>0.01</v>
@@ -6135,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2">
         <v>0.01</v>
@@ -6202,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2">
         <v>0.01</v>
@@ -6266,22 +6324,22 @@
         <v>0</v>
       </c>
       <c r="N37" s="6">
-        <v>50000</v>
+        <v>2000000</v>
       </c>
       <c r="O37" s="1">
-        <v>40000.0</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2">
         <v>0.01</v>
       </c>
       <c r="Q37" s="1">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="R37" s="6">
-        <v>-400.0</v>
+        <v>0.0</v>
       </c>
       <c r="S37" s="1">
-        <v>50000</v>
+        <v>2000000</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="1">
@@ -6295,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>1560.0</v>
+        <v>62400.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" t="s">
@@ -6333,22 +6391,22 @@
         <v>0</v>
       </c>
       <c r="N38" s="8">
-        <v>59500.0</v>
+        <v>2146000.0</v>
       </c>
       <c r="O38" s="8">
-        <v>47600.0</v>
+        <v>16800.0</v>
       </c>
       <c r="P38" s="9">
         <v>0.01</v>
       </c>
       <c r="Q38" s="8">
-        <v>476.0</v>
+        <v>168.0</v>
       </c>
       <c r="R38" s="8">
-        <v>-476.0</v>
+        <v>-168.0</v>
       </c>
       <c r="S38" s="8">
-        <v>59500.0</v>
+        <v>2146000.0</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="8">
@@ -6362,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="8">
-        <v>1856.4</v>
+        <v>66955.2</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" t="s">
@@ -6400,22 +6458,22 @@
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <v>69665.0</v>
+        <v>2302220.0</v>
       </c>
       <c r="O39" s="1">
-        <v>55732.0</v>
+        <v>141776.0</v>
       </c>
       <c r="P39" s="2">
         <v>0.01</v>
       </c>
       <c r="Q39" s="1">
-        <v>557.32</v>
+        <v>1417.76</v>
       </c>
       <c r="R39" s="6">
-        <v>-557.32</v>
+        <v>-1417.76</v>
       </c>
       <c r="S39" s="1">
-        <v>69665.0</v>
+        <v>2302220.0</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="1">
@@ -6429,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>2173.548</v>
+        <v>71829.264</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" t="s">
@@ -6467,22 +6525,22 @@
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <v>80541.55</v>
+        <v>2469375.4</v>
       </c>
       <c r="O40" s="11">
-        <v>64433.24</v>
+        <v>275500.32</v>
       </c>
       <c r="P40" s="12">
         <v>0.01</v>
       </c>
       <c r="Q40" s="11">
-        <v>644.3324</v>
+        <v>2755.0032</v>
       </c>
       <c r="R40" s="11">
-        <v>-644.3324</v>
+        <v>-2755.0032</v>
       </c>
       <c r="S40" s="11">
-        <v>80541.55</v>
+        <v>2469375.4</v>
       </c>
       <c r="T40" s="12"/>
       <c r="U40" s="11">
@@ -6496,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>2512.89636</v>
+        <v>77044.51248</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" t="s">
@@ -6534,22 +6592,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <v>92179.4585</v>
+        <v>2648231.678</v>
       </c>
       <c r="O41" s="1">
-        <v>73743.5668</v>
+        <v>418585.3424</v>
       </c>
       <c r="P41" s="2">
         <v>0.01</v>
       </c>
       <c r="Q41" s="1">
-        <v>737.435668</v>
+        <v>4185.853424</v>
       </c>
       <c r="R41" s="6">
-        <v>-737.435668</v>
+        <v>-4185.853424</v>
       </c>
       <c r="S41" s="1">
-        <v>92179.4585</v>
+        <v>2648231.678</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="1">
@@ -6563,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>2875.9991052</v>
+        <v>82624.8283536</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" t="s">
@@ -6601,22 +6659,22 @@
         <v>0</v>
       </c>
       <c r="N42" s="6">
-        <v>104632.020595</v>
+        <v>2839607.89546</v>
       </c>
       <c r="O42" s="1">
-        <v>83705.616476</v>
+        <v>571686.316368</v>
       </c>
       <c r="P42" s="2">
         <v>0.01</v>
       </c>
       <c r="Q42" s="1">
-        <v>837.05616476</v>
+        <v>5716.86316368</v>
       </c>
       <c r="R42" s="6">
-        <v>-837.05616476</v>
+        <v>-5716.86316368</v>
       </c>
       <c r="S42" s="1">
-        <v>104632.020595</v>
+        <v>2839607.89546</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="1">
@@ -6630,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>3264.519042564</v>
+        <v>88595.766338352</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" t="s">
@@ -6668,22 +6726,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="6">
-        <v>117956.26203665</v>
+        <v>3044380.4481422</v>
       </c>
       <c r="O43" s="1">
-        <v>94365.00962932</v>
+        <v>735504.35851376</v>
       </c>
       <c r="P43" s="2">
         <v>0.01</v>
       </c>
       <c r="Q43" s="1">
-        <v>943.6500962932</v>
+        <v>7355.0435851376</v>
       </c>
       <c r="R43" s="6">
-        <v>-943.6500962932</v>
+        <v>-7355.0435851376</v>
       </c>
       <c r="S43" s="1">
-        <v>117956.26203665</v>
+        <v>3044380.4481422</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="1">
@@ -6697,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>3680.2353755435</v>
+        <v>94984.669982037</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" t="s">
@@ -6735,22 +6793,22 @@
         <v>0</v>
       </c>
       <c r="N44" s="6">
-        <v>132213.20037922</v>
+        <v>3263487.0795122</v>
       </c>
       <c r="O44" s="1">
-        <v>105770.56030337</v>
+        <v>910789.66360972</v>
       </c>
       <c r="P44" s="2">
         <v>0.01</v>
       </c>
       <c r="Q44" s="1">
-        <v>1057.7056030337</v>
+        <v>9107.8966360972</v>
       </c>
       <c r="R44" s="6">
-        <v>-1057.7056030337</v>
+        <v>-9107.8966360972</v>
       </c>
       <c r="S44" s="1">
-        <v>132213.20037922</v>
+        <v>3263487.0795122</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="1">
@@ -6764,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>4125.0518518315</v>
+        <v>101820.79688078</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" t="s">
@@ -6802,22 +6860,22 @@
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <v>147468.12440576</v>
+        <v>3497931.175078</v>
       </c>
       <c r="O45" s="1">
-        <v>117974.49952461</v>
+        <v>1098344.9400624</v>
       </c>
       <c r="P45" s="2">
         <v>0.01</v>
       </c>
       <c r="Q45" s="1">
-        <v>1179.7449952461</v>
+        <v>10983.449400624</v>
       </c>
       <c r="R45" s="6">
-        <v>-1179.7449952461</v>
+        <v>-10983.449400624</v>
       </c>
       <c r="S45" s="1">
-        <v>147468.12440576</v>
+        <v>3497931.175078</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="1">
@@ -6831,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>4601.0054814597</v>
+        <v>109135.45266243</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" t="s">
@@ -6869,22 +6927,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <v>163790.89311416</v>
+        <v>3748786.3573335</v>
       </c>
       <c r="O46" s="1">
-        <v>131032.71449133</v>
+        <v>1299029.0858668</v>
       </c>
       <c r="P46" s="2">
         <v>0.01</v>
       </c>
       <c r="Q46" s="1">
-        <v>1310.3271449133</v>
+        <v>12990.290858668</v>
       </c>
       <c r="R46" s="6">
-        <v>-1310.3271449133</v>
+        <v>-12990.290858668</v>
       </c>
       <c r="S46" s="1">
-        <v>163790.89311416</v>
+        <v>3748786.3573335</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="1">
@@ -6898,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>5110.2758651619</v>
+        <v>116962.1343488</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" t="s">
@@ -6936,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <v>181256.25563216</v>
+        <v>4017201.4023468</v>
       </c>
       <c r="O47" s="1">
-        <v>145005.00450572</v>
+        <v>1513761.1218774</v>
       </c>
       <c r="P47" s="2">
         <v>0.01</v>
       </c>
       <c r="Q47" s="1">
-        <v>1450.0500450572</v>
+        <v>15137.611218774</v>
       </c>
       <c r="R47" s="6">
-        <v>-1450.0500450572</v>
+        <v>-15137.611218774</v>
       </c>
       <c r="S47" s="1">
-        <v>181256.25563216</v>
+        <v>4017201.4023468</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="1">
@@ -6965,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>5655.1951757232</v>
+        <v>125336.68375322</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" t="s">
@@ -7003,22 +7061,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="6">
-        <v>193944.19352641</v>
+        <v>4298405.5005111</v>
       </c>
       <c r="O48" s="1">
-        <v>155155.35482113</v>
+        <v>1738724.4004089</v>
       </c>
       <c r="P48" s="2">
         <v>0.01</v>
       </c>
       <c r="Q48" s="1">
-        <v>1551.5535482113</v>
+        <v>17387.244004089</v>
       </c>
       <c r="R48" s="6">
-        <v>-1551.5535482113</v>
+        <v>-17387.244004089</v>
       </c>
       <c r="S48" s="1">
-        <v>193944.19352641</v>
+        <v>4298405.5005111</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="1">
@@ -7032,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>6051.0588380239</v>
+        <v>134110.25161595</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" t="s">
@@ -7070,22 +7128,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="6">
-        <v>207520.28707325</v>
+        <v>4599293.8855469</v>
       </c>
       <c r="O49" s="1">
-        <v>166016.2296586</v>
+        <v>1979435.1084375</v>
       </c>
       <c r="P49" s="2">
         <v>0.01</v>
       </c>
       <c r="Q49" s="1">
-        <v>1660.162296586</v>
+        <v>19794.351084375</v>
       </c>
       <c r="R49" s="6">
-        <v>-1660.162296586</v>
+        <v>-19794.351084375</v>
       </c>
       <c r="S49" s="1">
-        <v>207520.28707325</v>
+        <v>4599293.8855469</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="1">
@@ -7099,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>6474.6329566855</v>
+        <v>143497.96922906</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" t="s">
@@ -7137,22 +7195,22 @@
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>222046.70716838</v>
+        <v>4921244.4575351</v>
       </c>
       <c r="O50" s="1">
-        <v>177637.36573471</v>
+        <v>2236995.5660281</v>
       </c>
       <c r="P50" s="2">
         <v>0.01</v>
       </c>
       <c r="Q50" s="1">
-        <v>1776.3736573471</v>
+        <v>22369.955660281</v>
       </c>
       <c r="R50" s="6">
-        <v>-1776.3736573471</v>
+        <v>-22369.955660281</v>
       </c>
       <c r="S50" s="1">
-        <v>222046.70716838</v>
+        <v>4921244.4575351</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="1">
@@ -7166,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>6927.8572636535</v>
+        <v>153542.8270751</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" t="s">
@@ -7204,22 +7262,22 @@
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>237589.97667017</v>
+        <v>5265731.5695626</v>
       </c>
       <c r="O51" s="1">
-        <v>190071.98133614</v>
+        <v>2512585.2556501</v>
       </c>
       <c r="P51" s="2">
         <v>0.01</v>
       </c>
       <c r="Q51" s="1">
-        <v>1900.7198133614</v>
+        <v>25125.852556501</v>
       </c>
       <c r="R51" s="6">
-        <v>-1900.7198133614</v>
+        <v>-25125.852556501</v>
       </c>
       <c r="S51" s="1">
-        <v>237589.97667017</v>
+        <v>5265731.5695626</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="1">
@@ -7233,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>7412.8072721093</v>
+        <v>164290.82497035</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" t="s">
@@ -7271,22 +7329,22 @@
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>254221.27503708</v>
+        <v>5634332.779432</v>
       </c>
       <c r="O52" s="1">
-        <v>203377.02002966</v>
+        <v>2807466.2235456</v>
       </c>
       <c r="P52" s="2">
         <v>0.01</v>
       </c>
       <c r="Q52" s="1">
-        <v>2033.7702002966</v>
+        <v>28074.662235456</v>
       </c>
       <c r="R52" s="6">
-        <v>-2033.7702002966</v>
+        <v>-28074.662235456</v>
       </c>
       <c r="S52" s="1">
-        <v>254221.27503708</v>
+        <v>5634332.779432</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="1">
@@ -7300,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>7931.7037811569</v>
+        <v>175791.18271828</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" t="s">
@@ -7338,22 +7396,22 @@
         <v>0</v>
       </c>
       <c r="N53" s="13">
-        <v>272016.76428968</v>
+        <v>6028736.0739922</v>
       </c>
       <c r="O53" s="13">
-        <v>217613.41143174</v>
+        <v>3122988.8591938</v>
       </c>
       <c r="P53" s="14">
         <v>0.01</v>
       </c>
       <c r="Q53" s="13">
-        <v>2176.1341143174</v>
+        <v>31229.888591938</v>
       </c>
       <c r="R53" s="13">
-        <v>-2176.1341143174</v>
+        <v>-31229.888591938</v>
       </c>
       <c r="S53" s="13">
-        <v>272016.76428968</v>
+        <v>6028736.0739922</v>
       </c>
       <c r="T53" s="14"/>
       <c r="U53" s="13">
@@ -7367,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>8486.9230458379</v>
+        <v>188096.56550856</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" t="s">
@@ -7405,22 +7463,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="6">
-        <v>291057.93778995</v>
+        <v>6450747.5991717</v>
       </c>
       <c r="O54" s="1">
-        <v>232846.35023196</v>
+        <v>3460598.0793373</v>
       </c>
       <c r="P54" s="2">
         <v>0.01</v>
       </c>
       <c r="Q54" s="1">
-        <v>2328.4635023196</v>
+        <v>34605.980793373</v>
       </c>
       <c r="R54" s="6">
-        <v>-2328.4635023196</v>
+        <v>-34605.980793373</v>
       </c>
       <c r="S54" s="1">
-        <v>291057.93778995</v>
+        <v>6450747.5991717</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="1">
@@ -7434,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>9081.0076590466</v>
+        <v>201263.32509416</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" t="s">
@@ -7472,22 +7530,22 @@
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <v>311431.99343525</v>
+        <v>6902299.9311137</v>
       </c>
       <c r="O55" s="1">
-        <v>249145.5947482</v>
+        <v>3821839.944891</v>
       </c>
       <c r="P55" s="2">
         <v>0.01</v>
       </c>
       <c r="Q55" s="1">
-        <v>2491.455947482</v>
+        <v>38218.39944891</v>
       </c>
       <c r="R55" s="6">
-        <v>-2491.455947482</v>
+        <v>-38218.39944891</v>
       </c>
       <c r="S55" s="1">
-        <v>311431.99343525</v>
+        <v>6902299.9311137</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="1">
@@ -7501,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>9716.6781951798</v>
+        <v>215351.75785075</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" t="s">
@@ -7539,22 +7597,22 @@
         <v>0</v>
       </c>
       <c r="N56" s="6">
-        <v>333232.23297572</v>
+        <v>7385460.9262917</v>
       </c>
       <c r="O56" s="1">
-        <v>266585.78638057</v>
+        <v>4208368.7410333</v>
       </c>
       <c r="P56" s="2">
         <v>0.01</v>
       </c>
       <c r="Q56" s="1">
-        <v>2665.8578638057</v>
+        <v>42083.687410333</v>
       </c>
       <c r="R56" s="6">
-        <v>-2665.8578638057</v>
+        <v>-42083.687410333</v>
       </c>
       <c r="S56" s="1">
-        <v>333232.23297572</v>
+        <v>7385460.9262917</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="1">
@@ -7568,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>10396.845668842</v>
+        <v>230426.3809003</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" t="s">
@@ -7606,22 +7664,22 @@
         <v>0</v>
       </c>
       <c r="N57" s="13">
-        <v>356558.48928402</v>
+        <v>7902443.1911321</v>
       </c>
       <c r="O57" s="13">
-        <v>285246.79142722</v>
+        <v>4621954.5529057</v>
       </c>
       <c r="P57" s="14">
         <v>0.01</v>
       </c>
       <c r="Q57" s="13">
-        <v>2852.4679142722</v>
+        <v>46219.545529057</v>
       </c>
       <c r="R57" s="13">
-        <v>-2852.4679142722</v>
+        <v>-46219.545529057</v>
       </c>
       <c r="S57" s="13">
-        <v>356558.48928402</v>
+        <v>7902443.1911321</v>
       </c>
       <c r="T57" s="14"/>
       <c r="U57" s="13">
@@ -7635,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>11124.624865661</v>
+        <v>246556.22756332</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" t="s">
@@ -7673,22 +7731,22 @@
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>381517.5835339</v>
+        <v>8455614.2145113</v>
       </c>
       <c r="O58" s="1">
-        <v>305214.06682712</v>
+        <v>5064491.3716091</v>
       </c>
       <c r="P58" s="2">
         <v>0.01</v>
       </c>
       <c r="Q58" s="1">
-        <v>3052.1406682712</v>
+        <v>50644.913716091</v>
       </c>
       <c r="R58" s="6">
-        <v>-3052.1406682712</v>
+        <v>-50644.913716091</v>
       </c>
       <c r="S58" s="1">
-        <v>381517.5835339</v>
+        <v>8455614.2145113</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="1">
@@ -7702,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>11903.348606258</v>
+        <v>263815.16349275</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" t="s">
@@ -7740,22 +7798,22 @@
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>408223.81438127</v>
+        <v>9047507.2095271</v>
       </c>
       <c r="O59" s="1">
-        <v>326579.05150502</v>
+        <v>5538005.7676217</v>
       </c>
       <c r="P59" s="2">
         <v>0.01</v>
       </c>
       <c r="Q59" s="1">
-        <v>3265.7905150502</v>
+        <v>55380.057676217</v>
       </c>
       <c r="R59" s="6">
-        <v>-3265.7905150502</v>
+        <v>-55380.057676217</v>
       </c>
       <c r="S59" s="1">
-        <v>408223.81438127</v>
+        <v>9047507.2095271</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="1">
@@ -7769,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>12736.583008696</v>
+        <v>282282.22493725</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" t="s">
@@ -7807,22 +7865,22 @@
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>436799.48138796</v>
+        <v>9680832.714194</v>
       </c>
       <c r="O60" s="1">
-        <v>349439.58511037</v>
+        <v>6044666.1713552</v>
       </c>
       <c r="P60" s="2">
         <v>0.01</v>
       </c>
       <c r="Q60" s="1">
-        <v>3494.3958511037</v>
+        <v>60446.661713552</v>
       </c>
       <c r="R60" s="6">
-        <v>-3494.3958511037</v>
+        <v>-60446.661713552</v>
       </c>
       <c r="S60" s="1">
-        <v>436799.48138796</v>
+        <v>9680832.714194</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="1">
@@ -7836,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>13628.143819304</v>
+        <v>302041.98068285</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" t="s">
@@ -7874,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="6">
-        <v>467375.44508512</v>
+        <v>10358491.004188</v>
       </c>
       <c r="O61" s="1">
-        <v>373900.3560681</v>
+        <v>6586792.8033501</v>
       </c>
       <c r="P61" s="2">
         <v>0.01</v>
       </c>
       <c r="Q61" s="1">
-        <v>3739.003560681</v>
+        <v>65867.928033501</v>
       </c>
       <c r="R61" s="6">
-        <v>-3739.003560681</v>
+        <v>-65867.928033501</v>
       </c>
       <c r="S61" s="1">
-        <v>467375.44508512</v>
+        <v>10358491.004188</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="1">
@@ -7903,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>14582.113886656</v>
+        <v>323184.91933065</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" t="s">
@@ -7941,22 +7999,22 @@
         <v>0</v>
       </c>
       <c r="N62" s="6">
-        <v>500091.72624108</v>
+        <v>11083585.374481</v>
       </c>
       <c r="O62" s="1">
-        <v>400073.38099286</v>
+        <v>7166868.2995846</v>
       </c>
       <c r="P62" s="2">
         <v>0.01</v>
       </c>
       <c r="Q62" s="1">
-        <v>4000.7338099286</v>
+        <v>71668.682995846</v>
       </c>
       <c r="R62" s="6">
-        <v>-4000.7338099286</v>
+        <v>-71668.682995846</v>
       </c>
       <c r="S62" s="1">
-        <v>500091.72624108</v>
+        <v>11083585.374481</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="1">
@@ -7970,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>15602.861858722</v>
+        <v>345807.8636838</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" t="s">
@@ -8008,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="N63" s="6">
-        <v>535098.14707795</v>
+        <v>11859436.350694</v>
       </c>
       <c r="O63" s="1">
-        <v>428078.51766236</v>
+        <v>7787549.0805555</v>
       </c>
       <c r="P63" s="2">
         <v>0.01</v>
       </c>
       <c r="Q63" s="1">
-        <v>4280.7851766236</v>
+        <v>77875.490805555</v>
       </c>
       <c r="R63" s="6">
-        <v>-4280.7851766236</v>
+        <v>-77875.490805555</v>
       </c>
       <c r="S63" s="1">
-        <v>535098.14707795</v>
+        <v>11859436.350694</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="1">
@@ -8037,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>16695.062188832</v>
+        <v>370014.41414166</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" t="s">
@@ -8075,22 +8133,22 @@
         <v>0</v>
       </c>
       <c r="N64" s="6">
-        <v>572555.01737341</v>
+        <v>12689596.895243</v>
       </c>
       <c r="O64" s="1">
-        <v>458044.01389873</v>
+        <v>8451677.5161944</v>
       </c>
       <c r="P64" s="2">
         <v>0.01</v>
       </c>
       <c r="Q64" s="1">
-        <v>4580.4401389873</v>
+        <v>84516.775161944</v>
       </c>
       <c r="R64" s="6">
-        <v>-4580.4401389873</v>
+        <v>-84516.775161944</v>
       </c>
       <c r="S64" s="1">
-        <v>572555.01737341</v>
+        <v>12689596.895243</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="1">
@@ -8104,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>17863.71654205</v>
+        <v>395915.42313158</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" t="s">
@@ -8142,22 +8200,22 @@
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <v>612633.86858955</v>
+        <v>13577868.67791</v>
       </c>
       <c r="O65" s="1">
-        <v>490107.09487164</v>
+        <v>9162294.942328</v>
       </c>
       <c r="P65" s="2">
         <v>0.01</v>
       </c>
       <c r="Q65" s="1">
-        <v>4901.0709487164</v>
+        <v>91622.94942328</v>
       </c>
       <c r="R65" s="6">
-        <v>-4901.0709487164</v>
+        <v>-91622.94942328</v>
       </c>
       <c r="S65" s="1">
-        <v>612633.86858955</v>
+        <v>13577868.67791</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="1">
@@ -8171,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>19114.176699994</v>
+        <v>423629.50275079</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" t="s">
@@ -8209,22 +8267,22 @@
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>655518.23939082</v>
+        <v>14528319.485364</v>
       </c>
       <c r="O66" s="1">
-        <v>524414.59151265</v>
+        <v>9922655.588291</v>
       </c>
       <c r="P66" s="2">
         <v>0.01</v>
       </c>
       <c r="Q66" s="1">
-        <v>5244.1459151265</v>
+        <v>99226.55588291</v>
       </c>
       <c r="R66" s="6">
-        <v>-5244.1459151265</v>
+        <v>-99226.55588291</v>
       </c>
       <c r="S66" s="1">
-        <v>655518.23939082</v>
+        <v>14528319.485364</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="1">
@@ -8238,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>20452.169068994</v>
+        <v>453283.56794335</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" t="s">
@@ -8276,22 +8334,22 @@
         <v>0</v>
       </c>
       <c r="N67" s="6">
-        <v>701404.51614818</v>
+        <v>15545301.849339</v>
       </c>
       <c r="O67" s="1">
-        <v>561123.61291854</v>
+        <v>10736241.479471</v>
       </c>
       <c r="P67" s="2">
         <v>0.01</v>
       </c>
       <c r="Q67" s="1">
-        <v>5611.2361291854</v>
+        <v>107362.41479471</v>
       </c>
       <c r="R67" s="6">
-        <v>-5611.2361291854</v>
+        <v>-107362.41479471</v>
       </c>
       <c r="S67" s="1">
-        <v>701404.51614818</v>
+        <v>15545301.849339</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="1">
@@ -8305,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>21883.820903823</v>
+        <v>485013.41769938</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" t="s">
@@ -8343,22 +8401,22 @@
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <v>750502.83227855</v>
+        <v>16633472.978793</v>
       </c>
       <c r="O68" s="1">
-        <v>600402.26582284</v>
+        <v>11606778.383034</v>
       </c>
       <c r="P68" s="2">
         <v>0.01</v>
       </c>
       <c r="Q68" s="1">
-        <v>6004.0226582284</v>
+        <v>116067.78383034</v>
       </c>
       <c r="R68" s="6">
-        <v>-6004.0226582284</v>
+        <v>-116067.78383034</v>
       </c>
       <c r="S68" s="1">
-        <v>750502.83227855</v>
+        <v>16633472.978793</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="1">
@@ -8372,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>23415.688367091</v>
+        <v>518964.35693834</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" t="s">
@@ -8410,22 +8468,22 @@
         <v>0</v>
       </c>
       <c r="N69" s="6">
-        <v>803038.03053805</v>
+        <v>17797816.087308</v>
       </c>
       <c r="O69" s="1">
-        <v>642430.42443044</v>
+        <v>12538252.869847</v>
       </c>
       <c r="P69" s="2">
         <v>0.01</v>
       </c>
       <c r="Q69" s="1">
-        <v>6424.3042443044</v>
+        <v>125382.52869847</v>
       </c>
       <c r="R69" s="6">
-        <v>-6424.3042443044</v>
+        <v>-125382.52869847</v>
       </c>
       <c r="S69" s="1">
-        <v>803038.03053805</v>
+        <v>17797816.087308</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="1">
@@ -8439,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>25054.786552787</v>
+        <v>555291.86192402</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" t="s">
@@ -8477,22 +8535,22 @@
         <v>0</v>
       </c>
       <c r="N70" s="6">
-        <v>859250.69267571</v>
+        <v>19043663.21342</v>
       </c>
       <c r="O70" s="1">
-        <v>687400.55414057</v>
+        <v>13534930.570736</v>
       </c>
       <c r="P70" s="2">
         <v>0.01</v>
       </c>
       <c r="Q70" s="1">
-        <v>6874.0055414057</v>
+        <v>135349.30570736</v>
       </c>
       <c r="R70" s="6">
-        <v>-6874.0055414057</v>
+        <v>-135349.30570736</v>
       </c>
       <c r="S70" s="1">
-        <v>859250.69267571</v>
+        <v>19043663.21342</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="1">
@@ -8506,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>26808.621611482</v>
+        <v>594162.2922587</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" t="s">
@@ -8544,22 +8602,22 @@
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <v>919398.24116301</v>
+        <v>20376719.638359</v>
       </c>
       <c r="O71" s="1">
-        <v>735518.59293041</v>
+        <v>14601375.710688</v>
       </c>
       <c r="P71" s="2">
         <v>0.01</v>
       </c>
       <c r="Q71" s="1">
-        <v>7355.1859293041</v>
+        <v>146013.75710688</v>
       </c>
       <c r="R71" s="6">
-        <v>-7355.1859293041</v>
+        <v>-146013.75710688</v>
       </c>
       <c r="S71" s="1">
-        <v>919398.24116301</v>
+        <v>20376719.638359</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="1">
@@ -8573,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>28685.225124286</v>
+        <v>635753.65271681</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" t="s">
@@ -8611,22 +8669,22 @@
         <v>0</v>
       </c>
       <c r="N72" s="5">
-        <v>983756.11804442</v>
+        <v>21803090.013045</v>
       </c>
       <c r="O72" s="5">
-        <v>787004.89443554</v>
+        <v>15742472.010436</v>
       </c>
       <c r="P72" s="16">
         <v>0.01</v>
       </c>
       <c r="Q72" s="5">
-        <v>7870.0489443554</v>
+        <v>157424.72010436</v>
       </c>
       <c r="R72" s="5">
-        <v>-7870.0489443554</v>
+        <v>-157424.72010436</v>
       </c>
       <c r="S72" s="5">
-        <v>983756.11804442</v>
+        <v>21803090.013045</v>
       </c>
       <c r="T72" s="16"/>
       <c r="U72" s="5">
@@ -8640,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>30693.190882986</v>
+        <v>680256.40840699</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" t="s">
